--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Angpt2-Tek.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Angpt2-Tek.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.81876051498888</v>
+        <v>7.364689666666667</v>
       </c>
       <c r="H2">
-        <v>5.81876051498888</v>
+        <v>22.094069</v>
       </c>
       <c r="I2">
-        <v>0.4601125815245962</v>
+        <v>0.5165094431700068</v>
       </c>
       <c r="J2">
-        <v>0.4601125815245962</v>
+        <v>0.5165094431700068</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.7543296438973</v>
+        <v>44.69746666666666</v>
       </c>
       <c r="N2">
-        <v>11.7543296438973</v>
+        <v>134.0924</v>
       </c>
       <c r="O2">
-        <v>0.371717804612711</v>
+        <v>0.6823972194925493</v>
       </c>
       <c r="P2">
-        <v>0.371717804612711</v>
+        <v>0.6823972194925493</v>
       </c>
       <c r="Q2">
-        <v>68.39562921207292</v>
+        <v>329.1829708861778</v>
       </c>
       <c r="R2">
-        <v>68.39562921207292</v>
+        <v>2962.6467379756</v>
       </c>
       <c r="S2">
-        <v>0.1710320386790099</v>
+        <v>0.3524646078608575</v>
       </c>
       <c r="T2">
-        <v>0.1710320386790099</v>
+        <v>0.3524646078608575</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.81876051498888</v>
+        <v>7.364689666666667</v>
       </c>
       <c r="H3">
-        <v>5.81876051498888</v>
+        <v>22.094069</v>
       </c>
       <c r="I3">
-        <v>0.4601125815245962</v>
+        <v>0.5165094431700068</v>
       </c>
       <c r="J3">
-        <v>0.4601125815245962</v>
+        <v>0.5165094431700068</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.4386145851949</v>
+        <v>18.63243533333333</v>
       </c>
       <c r="N3">
-        <v>18.4386145851949</v>
+        <v>55.897306</v>
       </c>
       <c r="O3">
-        <v>0.5831009969392047</v>
+        <v>0.2844618053784121</v>
       </c>
       <c r="P3">
-        <v>0.5831009969392047</v>
+        <v>0.2844618053784121</v>
       </c>
       <c r="Q3">
-        <v>107.2898824994302</v>
+        <v>137.2221039642349</v>
       </c>
       <c r="R3">
-        <v>107.2898824994302</v>
+        <v>1234.998935678114</v>
       </c>
       <c r="S3">
-        <v>0.2682921049912632</v>
+        <v>0.1469272086991385</v>
       </c>
       <c r="T3">
-        <v>0.2682921049912632</v>
+        <v>0.1469272086991385</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.81876051498888</v>
+        <v>7.364689666666667</v>
       </c>
       <c r="H4">
-        <v>5.81876051498888</v>
+        <v>22.094069</v>
       </c>
       <c r="I4">
-        <v>0.4601125815245962</v>
+        <v>0.5165094431700068</v>
       </c>
       <c r="J4">
-        <v>0.4601125815245962</v>
+        <v>0.5165094431700068</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.42870396218563</v>
+        <v>2.170755666666667</v>
       </c>
       <c r="N4">
-        <v>1.42870396218563</v>
+        <v>6.512267</v>
       </c>
       <c r="O4">
-        <v>0.0451811984480843</v>
+        <v>0.03314097512903853</v>
       </c>
       <c r="P4">
-        <v>0.0451811984480843</v>
+        <v>0.03314097512903853</v>
       </c>
       <c r="Q4">
-        <v>8.313286202773909</v>
+        <v>15.98694182715811</v>
       </c>
       <c r="R4">
-        <v>8.313286202773909</v>
+        <v>143.882476444423</v>
       </c>
       <c r="S4">
-        <v>0.02078843785432315</v>
+        <v>0.01711762661001074</v>
       </c>
       <c r="T4">
-        <v>0.02078843785432315</v>
+        <v>0.01711762661001073</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.82847092913122</v>
+        <v>1.829962</v>
       </c>
       <c r="H5">
-        <v>1.82847092913122</v>
+        <v>5.489886</v>
       </c>
       <c r="I5">
-        <v>0.1445844827739659</v>
+        <v>0.1283411381093639</v>
       </c>
       <c r="J5">
-        <v>0.1445844827739659</v>
+        <v>0.1283411381093639</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.7543296438973</v>
+        <v>44.69746666666666</v>
       </c>
       <c r="N5">
-        <v>11.7543296438973</v>
+        <v>134.0924</v>
       </c>
       <c r="O5">
-        <v>0.371717804612711</v>
+        <v>0.6823972194925493</v>
       </c>
       <c r="P5">
-        <v>0.371717804612711</v>
+        <v>0.6823972194925493</v>
       </c>
       <c r="Q5">
-        <v>21.49245004529154</v>
+        <v>81.79466549626666</v>
       </c>
       <c r="R5">
-        <v>21.49245004529154</v>
+        <v>736.1519894664</v>
       </c>
       <c r="S5">
-        <v>0.05374462651780293</v>
+        <v>0.0875796357923392</v>
       </c>
       <c r="T5">
-        <v>0.05374462651780293</v>
+        <v>0.08757963579233918</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.82847092913122</v>
+        <v>1.829962</v>
       </c>
       <c r="H6">
-        <v>1.82847092913122</v>
+        <v>5.489886</v>
       </c>
       <c r="I6">
-        <v>0.1445844827739659</v>
+        <v>0.1283411381093639</v>
       </c>
       <c r="J6">
-        <v>0.1445844827739659</v>
+        <v>0.1283411381093639</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.4386145851949</v>
+        <v>18.63243533333333</v>
       </c>
       <c r="N6">
-        <v>18.4386145851949</v>
+        <v>55.897306</v>
       </c>
       <c r="O6">
-        <v>0.5831009969392047</v>
+        <v>0.2844618053784121</v>
       </c>
       <c r="P6">
-        <v>0.5831009969392047</v>
+        <v>0.2844618053784121</v>
       </c>
       <c r="Q6">
-        <v>33.71447074248378</v>
+        <v>34.09664862745733</v>
       </c>
       <c r="R6">
-        <v>33.71447074248378</v>
+        <v>306.869837647116</v>
       </c>
       <c r="S6">
-        <v>0.08430735604743878</v>
+        <v>0.0365081518509098</v>
       </c>
       <c r="T6">
-        <v>0.08430735604743878</v>
+        <v>0.03650815185090979</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.82847092913122</v>
+        <v>1.829962</v>
       </c>
       <c r="H7">
-        <v>1.82847092913122</v>
+        <v>5.489886</v>
       </c>
       <c r="I7">
-        <v>0.1445844827739659</v>
+        <v>0.1283411381093639</v>
       </c>
       <c r="J7">
-        <v>0.1445844827739659</v>
+        <v>0.1283411381093639</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.42870396218563</v>
+        <v>2.170755666666667</v>
       </c>
       <c r="N7">
-        <v>1.42870396218563</v>
+        <v>6.512267</v>
       </c>
       <c r="O7">
-        <v>0.0451811984480843</v>
+        <v>0.03314097512903853</v>
       </c>
       <c r="P7">
-        <v>0.0451811984480843</v>
+        <v>0.03314097512903853</v>
       </c>
       <c r="Q7">
-        <v>2.612343661191014</v>
+        <v>3.972400381284667</v>
       </c>
       <c r="R7">
-        <v>2.612343661191014</v>
+        <v>35.751603431562</v>
       </c>
       <c r="S7">
-        <v>0.006532500208724179</v>
+        <v>0.004253350466114929</v>
       </c>
       <c r="T7">
-        <v>0.006532500208724179</v>
+        <v>0.004253350466114927</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.99915282928588</v>
+        <v>5.063925333333334</v>
       </c>
       <c r="H8">
-        <v>4.99915282928588</v>
+        <v>15.191776</v>
       </c>
       <c r="I8">
-        <v>0.3953029357014379</v>
+        <v>0.3551494187206292</v>
       </c>
       <c r="J8">
-        <v>0.3953029357014379</v>
+        <v>0.3551494187206292</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.7543296438973</v>
+        <v>44.69746666666666</v>
       </c>
       <c r="N8">
-        <v>11.7543296438973</v>
+        <v>134.0924</v>
       </c>
       <c r="O8">
-        <v>0.371717804612711</v>
+        <v>0.6823972194925493</v>
       </c>
       <c r="P8">
-        <v>0.371717804612711</v>
+        <v>0.6823972194925493</v>
       </c>
       <c r="Q8">
-        <v>58.76169029564807</v>
+        <v>226.3446337891556</v>
       </c>
       <c r="R8">
-        <v>58.76169029564807</v>
+        <v>2037.1017041024</v>
       </c>
       <c r="S8">
-        <v>0.1469411394158981</v>
+        <v>0.2423529758393525</v>
       </c>
       <c r="T8">
-        <v>0.1469411394158981</v>
+        <v>0.2423529758393525</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.99915282928588</v>
+        <v>5.063925333333334</v>
       </c>
       <c r="H9">
-        <v>4.99915282928588</v>
+        <v>15.191776</v>
       </c>
       <c r="I9">
-        <v>0.3953029357014379</v>
+        <v>0.3551494187206292</v>
       </c>
       <c r="J9">
-        <v>0.3953029357014379</v>
+        <v>0.3551494187206292</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.4386145851949</v>
+        <v>18.63243533333333</v>
       </c>
       <c r="N9">
-        <v>18.4386145851949</v>
+        <v>55.897306</v>
       </c>
       <c r="O9">
-        <v>0.5831009969392047</v>
+        <v>0.2844618053784121</v>
       </c>
       <c r="P9">
-        <v>0.5831009969392047</v>
+        <v>0.2844618053784121</v>
       </c>
       <c r="Q9">
-        <v>92.17745227168898</v>
+        <v>94.35326130616178</v>
       </c>
       <c r="R9">
-        <v>92.17745227168898</v>
+        <v>849.1793517554561</v>
       </c>
       <c r="S9">
-        <v>0.2305015359005028</v>
+        <v>0.1010264448283638</v>
       </c>
       <c r="T9">
-        <v>0.2305015359005028</v>
+        <v>0.1010264448283638</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.99915282928588</v>
+        <v>5.063925333333334</v>
       </c>
       <c r="H10">
-        <v>4.99915282928588</v>
+        <v>15.191776</v>
       </c>
       <c r="I10">
-        <v>0.3953029357014379</v>
+        <v>0.3551494187206292</v>
       </c>
       <c r="J10">
-        <v>0.3953029357014379</v>
+        <v>0.3551494187206292</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.42870396218563</v>
+        <v>2.170755666666667</v>
       </c>
       <c r="N10">
-        <v>1.42870396218563</v>
+        <v>6.512267</v>
       </c>
       <c r="O10">
-        <v>0.0451811984480843</v>
+        <v>0.03314097512903853</v>
       </c>
       <c r="P10">
-        <v>0.0451811984480843</v>
+        <v>0.03314097512903853</v>
       </c>
       <c r="Q10">
-        <v>7.142309454772238</v>
+        <v>10.99254461291022</v>
       </c>
       <c r="R10">
-        <v>7.142309454772238</v>
+        <v>98.93290151619202</v>
       </c>
       <c r="S10">
-        <v>0.01786026038503697</v>
+        <v>0.01176999805291287</v>
       </c>
       <c r="T10">
-        <v>0.01786026038503697</v>
+        <v>0.01176999805291286</v>
       </c>
     </row>
   </sheetData>
